--- a/09_Data_probands/Data_summary.xlsx
+++ b/09_Data_probands/Data_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\OneDrive\Desktop\DSBA-M2\CRP\SensitivePen\09_Data_probands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2F9C0-348B-4357-B442-F260743A5907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A0E1D-6FC9-4780-AB1A-1E9BAD45E2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{A1CF00C3-29CF-449A-99BB-FF6FCD9F3D22}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Dataset</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>G6_sentence_fr</t>
+  </si>
+  <si>
+    <t>G3_loops</t>
+  </si>
+  <si>
+    <t>B3_loops</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +662,7 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -685,7 +691,7 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
